--- a/새로받은문서(0404~)/30기_B반_2조_(2)사용자요구사항정의서.xlsx
+++ b/새로받은문서(0404~)/30기_B반_2조_(2)사용자요구사항정의서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\공은아\Documents\프로젝트\새로받은문서(0404~)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="96" windowWidth="15600" windowHeight="7776" activeTab="2"/>
   </bookViews>
@@ -24,8 +19,8 @@
     <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'사용자 요구사항 정의서'!$A$5:$J$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'사용자 요구사항 정의서'!$A$1:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'사용자 요구사항 정의서'!$A$5:$J$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'사용자 요구사항 정의서'!$A$1:$J$24</definedName>
     <definedName name="병">INDIRECT([1]자료!$B1)</definedName>
     <definedName name="분류">[2]워크자료!$A$2:$A$65536</definedName>
     <definedName name="찾기분류">INDIRECT([2]자료!$B1)</definedName>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -594,146 +589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">로그인 전 메인화면
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- 간단한 회원가입 폼을 메인으로 띄워준다.
-- 기능들에 대한 간단한 소개를 보여준다</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
-로그인 후 메인화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- 나의 일정을 보여주는 7*5의 캘린더를 보여준다.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-네비게이션 기능
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-화면 상단에 네비게이션이 항상 상주해 있는다. 스크롤를 내려도 네비게이션은 움직이지 않는다.
--네비게이션 상단 오른쪽에는 사용자의 '로그인' 와 이름, ID가 출력된다.
--'로그인'버튼을 눌러 로그인을 하면 로그인 버튼은 '로그아웃'버튼으로 바뀌고 오른쪽에는 '쪽지함' 버튼이 생긴다. 메인 화면은 Forum의 검색화면으로 전환된다.
--네비게이션 하단에는 'Project개설', '참여Project목록', 'Forum게시판 총3개의 항목이 있다. 
--'이름, ID' 는 현재 로그인 된 사용자의 이름과 ID가 출력된다.
--'로그아웃' 누르면 바로 로그아웃 → 시작 화면으로
--'Project개설' 항목을 누르면 새 Project 작성 다이얼로그가 화면에 나타난다.
--'참여Project목록'을 누르면 참여중인 Project 목록이 List로 내려오고 해당 이름을 클릭하면 해당 프로젝트 페이지를 새창을 띄워서 이동한다.
--'Forum게시판'을 누르면 해당 게시판 페이지로 이동
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">쪽지함
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-'쪽지함'버튼을 클릭하면 쪽지함 인터페이스가 팝업창으로 나타난다.
- -좌측 메뉴에 쪽지 쓰기, 읽기 메뉴를 보여준다.
- - 메인 화면은 도착한 쪽지 리스트로 하며 쪽지 쓰기 메뉴를 클릭하면 메인 화면이 쪽지 쓰기 폼으로 전환된다.
- - 읽고자 하는 쪽지를 클릭하면 메인화면이 쪽지 읽기 폼으로 전환되어 상단에는 쪽지보낸사람의 아이디가 노출되고 메인화면은 쪽지 내용이 나타난다. 하단에는 메뉴로 돌아가기버튼을 추가한다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MyPage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--메인 화면의 좌측에 메뉴바 형식으로 '개인정보 수정', '접근코드 사용'의 메뉴들이 리스트 형식으로 노출된다. 해당 메뉴를 클릭하면 팝업 형식으로 다이얼로그가 나타나다.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 프로젝트 작성 후 팀원 추가 버튼을 통해서 프로젝트 팀원 초대 메시지를 발송 할 수 있다.
 - 버튼을 누르면 아이디 입력 팝업을 띄우고 이것을 통해서 이용자들에게 해당 프로젝트에 대한 초대 메시지를 발송한다.
 - 초대 메시지를 받은 사용자는 승인.거부 버튼을 통해서 해당 프로젝트에 참가 여부를 결정할 수있다.</t>
@@ -743,135 +598,6 @@
     <t>Meeting
 기능</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>처음화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- - 좌측 메뉴바:  1. 문제 저장소 2.일정잡기 3.프로젝트관리 메뉴 4. 음성채팅을 리스트 형식으로 보여준다
- -메인:다대다채팅창을 보여줘서 바로 회의에 참여 할 수 있도록 지원한다.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-팀 자료실
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- '저장소 메뉴'를 클릭하면 팝업창이 열리고 등록된 문제들에 대한 목록이 Panel형식으로 나타난다. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">일정잡기
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - '일정잡기 메뉴'를 클릭하면 일정을 잡기위한 다이얼로그가 보여지고 해당 다이얼로그에 내용을 입력하고 확인버튼을 누르면 최대 7*24의 캘린더가 보여진다.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">프로젝트관리
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- 프로젝트 관리'메뉴를 클릭하면 해당 프로젝트에 대한 정보 및 인원에 대한 정보 그리고 탈퇴 요청 버튼이 노출된다.
-- 프로젝트 리더에게는 좌측에 해당 프로젝트에 대한 대화방 생성 그리고 프로젝트 종료 버튼을 보여준다. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>음성채팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--음성채팅 메뉴를 클릭하면 음성기능이 활성화 된다.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> -음성채팅을 실행하면 해당 방에 있는 사람들에게 동의 메시지가 가며 그 메시지에 동의하면 음성을 들을 수 있다.
@@ -899,48 +625,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3, 개인기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>스크랩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - url을 통해 인터넷 상의 문서를 스토리지에 저장할 수 있게 한다.
- - 저장시 간단한 코멘트를 함께 저장하여 스크랩 자료에 대해 파악이 쉽게 한다.
- - 테마별로 구분 할 수있게 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -url을 통해 개인 공간안에서 웹 문서를 실행 시키며, 문서의 특정 부분을 선택하여, 밑줄 긋기를 할 수 있게 한다.
- - 그어진 밑줄은 저장하여 스크랩에서 다시 문서를 불러와 읽을 때 남아 있게 한다. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 하단에 위치한 Textfield에 내용을 입력하고 전송버튼을 누르거나 엔터를 치면 화면에 채팅내용과 아이디가 등록된다.
- - 채팅창에 접속하면 해당 날짜를 상단에 보여주고 고정시킨다.
- - 상단 우측에 위치한 버튼을 클릭하면 현재 접속중인 사람들을 보여준다.
- - 브라우저가 내려가 있을 때는 푸시 메시지를 통해 알려준다.
- - 일반 발언과 중요 발언은 구분 할 수 있도록 한다.
- - 자기 스토리지에 들어 있는 자료들은 채팅창을 통해 공유 할 수 있도록 구현한다. 
- - 채팅창을 2분할 하여 우측에서는 URL을 통해 스토리지나 외부 자료를 동시에 볼수 있도록 구현하며 메모 기능을 통해 채팅 중에 나온 내용들을 정리하고 저장 할 수 있도록 지원한다.
- *제한사항
- - 음성채팅 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 개인 공간의 메인 화면에 노트 기능을 구현하여 스크랩된 문서들을 보면서 아이디어를 정리 할 수 있도록 지원한다.
- - 정리한 내용들은 스크랩 공간에 테마별로 저장 할수 있도록 하여 다시 불러와 보기 및 편집이 가능 하도록 지원한다.
- - 메모장 기능을 사용하여 기존의 아이디어 Note에 시각적으로 추가 아이디어를 만들어 저장 할 수 있도록 지원한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -983,7 +668,7 @@
 -이메일(=ID),비밀번호/확인,프로필사진을 등록한다.
 -이메일은 중복검사를 통하고 5~12자이내로 한다. 조건에 맞지 않으면 경고창을 띄운다.
 -비밀번호는 숫자와 문자를 포함해 8~15자이내로 한다. 조건에 맞지 않으면 경고창을 띄운다.
--스카이프 아이디 or GoogleMail 추가 가능
+-GoogleMail 추가 가능
 </t>
     </r>
     <r>
@@ -1006,7 +691,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
--비밀번호,프로필사진을 수정한다
 -비밀번호 변경 시 비밀번호를 입력하지 않으면 기존의 비밀번호를 수정하지 않고 새 비밀번호를 입력시 비밀번호를 변경한다.
 </t>
     </r>
@@ -1034,12 +718,265 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">로그인 전 메인화면
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 간단한 회원가입/로그인 폼을 메인으로 띄워준다.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+로그인 후 메인화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- 나의 참여 프로젝트 목록을 보여준다..</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+네비게이션 기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-네비게이션 상단 오른쪽에는 사용자의 '로그인' 와 이름, ID가 출력된다.
+-'로그인'버튼을 눌러 로그인을 하면 로그인 버튼은 '로그아웃'버튼으로 바뀌고 오른쪽에는 '쪽지함' 버튼이 생긴다.참여 프로젝트 목록을 보여준다.
+-'이름, ID' 는 현재 로그인 된 사용자의 이름과 ID가 출력된다.
+-'로그아웃' 누르면 바로 로그아웃 → 시작 화면으로
+-'Project개설' 항목을 누르면 새 Project 작성 다이얼로그가 화면에 나타난다.
+-참여 프로젝트를 선택하면 해당 프로젝트 화면으로 전환된다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">쪽지함
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-'쪽지함'버튼을 클릭하면 쪽지함 인터페이스가 팝업창으로 나타난다.
+ -좌측 메뉴에 쪽지 쓰기, 읽기 메뉴를 보여준다.
+ - 메인 화면은 도착한 쪽지 리스트로 하며 쪽지 쓰기 메뉴를 클릭하면 메인 화면이 쪽지 쓰기 폼으로 전환된다.
+ - 읽고자 하는 쪽지를 클릭하면 메인화면이 쪽지 읽기 폼으로 전환되어 상단에는 쪽지보낸사람의 아이디가 노출되고 메인화면은 쪽지 내용이 나타난다. 하단에는 메뉴로 돌아가기버튼을 추가한다.</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -회의중에 나왔던 발언들을 긁어서 바로 스크랩 할 수 있도록 구현한다.
+-스크랩 된 내용을 편집/ 수정/ 저장 할 수 있도록 구현하며 저장할 때는 스크랩 제목을 등록하고 해당 제목을 클릭하면 스크랩 화면에 내용이 나타나도록 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포스트 잇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스크랩 과는 별도로 임시 메모 공간을 만들어 제공한다.
+ - 포스트 잇 처럼 구현 하여 간단한 메모를 작성할 수 있도록 하며 브라우저가 종료되면
+   사라 지도록 구현하여 스크랩과의 용도를 구분한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 하단에 위치한 Textfield에 내용을 입력하고 전송버튼을 누르거나 엔터를 치면 화면에 채팅내용과 아이디가 등록된다.
+ - 현재 접속중인 사람들을 보여준다.
+ - 브라우저가 내려가 있을 때는 푸시 메시지를 통해 알려준다.
+  - 자료들은 채팅창을 통해 공유 할 수 있도록 구현한다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼을 통해 회의 내용을 기록 할 수 있도록 제공한다.
+ - 기록된 회의 내용은 회의 테마 별/ 날짜 별로 구분하여 Panel 형식으로 보여준다. 
+ - 해당 회의록을 클릭하면 회의 기록을 볼 수 있게 제공하며 수정이 불가능 하게 하여 회의록에 대한 신뢰성을 부여한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>처음화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - 좌측 메뉴바:  1. 프로젝트리스트 2.회의방 리스트 3스토리지 메뉴 4.그룹관리 메뉴 5 공정표 보기를 리스트 형식으로 보여준다
+ -메인:공지사항과 공정표를 보여준다</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+팀 자료실
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- '저장소 메뉴'를 클릭하면 팝업창이 열리고 등록된 자료들에 대한 목록이 Panel형식으로 나타난다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">일정잡기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - '일정잡기 메뉴'를 클릭하면 일정을 잡기위한 다이얼로그가 보여지고 해당 다이얼로그에 내용을 입력하고 확인버튼을 누르면 최대 7*5의 캘린더가 보여진다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">프로젝트관리
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 프로젝트 관리'메뉴를 클릭하면 해당 프로젝트에 대한 정보 및 인원에 대한 정보 그리고 탈퇴 요청 버튼이 노출된다.
+- 프로젝트 리더에게는 좌측에 해당 프로젝트에 대한 대화방 생성 그리고 프로젝트 종료 버튼을 보여준다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>음성채팅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-음성채팅 메뉴를 클릭하면 음성기능이 활성화 된다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -2311,7 +2248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2346,7 +2283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2564,7 +2501,7 @@
       <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.796875" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" style="12" bestFit="1" customWidth="1"/>
@@ -2576,7 +2513,7 @@
     <col min="9" max="16384" width="8.8984375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.9" customHeight="1">
+    <row r="1" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
@@ -2622,8 +2559,8 @@
       <c r="G2" s="54"/>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1"/>
-    <row r="4" spans="1:8" ht="381.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:8" ht="381.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="51" t="s">
         <v>70</v>
       </c>
@@ -2655,7 +2592,7 @@
       <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.796875" style="1" customWidth="1"/>
@@ -2665,7 +2602,7 @@
     <col min="7" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2673,7 +2610,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="21">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.45">
       <c r="A2" s="60" t="s">
         <v>7</v>
       </c>
@@ -2683,7 +2620,7 @@
       <c r="E2" s="60"/>
       <c r="F2" s="60"/>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1">
+    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2691,7 +2628,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2646,7 @@
       </c>
       <c r="F4" s="62"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2727,12 +2664,12 @@
       </c>
       <c r="F5" s="64"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>66</v>
@@ -2745,7 +2682,7 @@
       </c>
       <c r="F6" s="64"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2753,7 +2690,7 @@
       <c r="E7" s="56"/>
       <c r="F7" s="57"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2761,7 +2698,7 @@
       <c r="E8" s="56"/>
       <c r="F8" s="57"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2769,7 +2706,7 @@
       <c r="E9" s="56"/>
       <c r="F9" s="57"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2777,7 +2714,7 @@
       <c r="E10" s="56"/>
       <c r="F10" s="57"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2785,7 +2722,7 @@
       <c r="E11" s="56"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2793,7 +2730,7 @@
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2801,7 +2738,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2809,7 +2746,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2817,7 +2754,7 @@
       <c r="E15" s="56"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2825,7 +2762,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="57"/>
     </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2833,7 +2770,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2841,7 +2778,7 @@
       <c r="E18" s="56"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2849,7 +2786,7 @@
       <c r="E19" s="56"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -2891,13 +2828,13 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.796875" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.8984375" style="42"/>
@@ -2911,7 +2848,7 @@
     <col min="10" max="10" width="7.69921875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="88" t="s">
         <v>14</v>
       </c>
@@ -2925,12 +2862,12 @@
       <c r="I1" s="89"/>
       <c r="J1" s="90"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C2" s="94"/>
       <c r="D2" s="94"/>
@@ -2945,7 +2882,7 @@
       <c r="I2" s="94"/>
       <c r="J2" s="95"/>
     </row>
-    <row r="3" spans="1:10" ht="18" thickBot="1">
+    <row r="3" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
@@ -2959,17 +2896,17 @@
         <v>18</v>
       </c>
       <c r="G3" s="96" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H3" s="96"/>
       <c r="I3" s="24" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -2981,7 +2918,7 @@
       <c r="I4" s="83"/>
       <c r="J4" s="83"/>
     </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
@@ -3013,7 +2950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24.9" customHeight="1">
+    <row r="6" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>108</v>
       </c>
@@ -3027,7 +2964,7 @@
       <c r="I6" s="66"/>
       <c r="J6" s="67"/>
     </row>
-    <row r="7" spans="1:10" ht="178.8" customHeight="1">
+    <row r="7" spans="1:10" ht="178.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>74</v>
       </c>
@@ -3038,7 +2975,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -3049,7 +2986,7 @@
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" ht="80.099999999999994" customHeight="1">
+    <row r="8" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>93</v>
       </c>
@@ -3071,7 +3008,7 @@
       <c r="I8" s="31"/>
       <c r="J8" s="31"/>
     </row>
-    <row r="9" spans="1:10" ht="66" customHeight="1">
+    <row r="9" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>100</v>
       </c>
@@ -3093,7 +3030,7 @@
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" ht="409.2" customHeight="1">
+    <row r="10" spans="1:10" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84" t="s">
         <v>109</v>
       </c>
@@ -3104,7 +3041,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="72"/>
@@ -3115,7 +3052,7 @@
       <c r="I10" s="72"/>
       <c r="J10" s="86"/>
     </row>
-    <row r="11" spans="1:10" ht="52.8" customHeight="1">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="85"/>
       <c r="B11" s="76"/>
       <c r="C11" s="78"/>
@@ -3127,275 +3064,265 @@
       <c r="I11" s="74"/>
       <c r="J11" s="87"/>
     </row>
-    <row r="12" spans="1:10" ht="24.9" customHeight="1">
-      <c r="A12" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-    </row>
-    <row r="13" spans="1:10" ht="132" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>94</v>
-      </c>
+    <row r="12" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
       <c r="B13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>29</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C13" s="49"/>
       <c r="D13" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="44"/>
+        <v>129</v>
+      </c>
+      <c r="E13" s="32"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="48" t="s">
-        <v>101</v>
-      </c>
+      <c r="G13" s="48"/>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:10" ht="301.2" customHeight="1">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:10" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+    </row>
+    <row r="15" spans="1:10" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="1:10" ht="301.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B16" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C16" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="70" t="s">
+      <c r="D16" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="81"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-    </row>
-    <row r="15" spans="1:10" ht="1.8" hidden="1" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="1:10" ht="1.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+    </row>
+    <row r="18" spans="1:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="48" t="s">
+      <c r="D18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="1:10" ht="89.4" customHeight="1">
-      <c r="A17" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-    </row>
-    <row r="18" spans="1:10" ht="89.4" customHeight="1">
-      <c r="A18" s="30"/>
-      <c r="B18" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="45"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" ht="162" customHeight="1">
+    <row r="19" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>77</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
+        <v>78</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" ht="61.8" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>85</v>
+    <row r="20" spans="1:10" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="41" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="48" t="s">
-        <v>83</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="50"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
     </row>
-    <row r="21" spans="1:10" ht="85.2" customHeight="1">
+    <row r="21" spans="1:10" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="32"/>
+        <v>87</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="30"/>
       <c r="F21" s="32"/>
       <c r="G21" s="48" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" ht="32.4" customHeight="1">
-      <c r="A22" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-    </row>
-    <row r="23" spans="1:10" ht="71.400000000000006" customHeight="1">
-      <c r="A23" s="30"/>
+    <row r="22" spans="1:10" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="40" t="s">
-        <v>124</v>
+        <v>81</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>119</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="48"/>
+      <c r="G23" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
     </row>
-    <row r="24" spans="1:10" ht="63" customHeight="1">
+    <row r="24" spans="1:10" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="40" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="48"/>
+      <c r="G24" s="48" t="s">
+        <v>83</v>
+      </c>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" ht="79.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
@@ -3407,25 +3334,24 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="9" max="9" man="1"/>
-    <brk id="11" max="9" man="1"/>
-    <brk id="15" max="9" man="1"/>
+    <brk id="13" max="9" man="1"/>
+    <brk id="17" max="9" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3441,12 +3367,12 @@
       <selection activeCell="A18" sqref="A18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="98" t="s">
         <v>36</v>
       </c>
@@ -3460,7 +3386,7 @@
       <c r="I1" s="99"/>
       <c r="J1" s="100"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="101"/>
       <c r="B2" s="102"/>
       <c r="C2" s="102"/>
@@ -3472,8 +3398,8 @@
       <c r="I2" s="102"/>
       <c r="J2" s="103"/>
     </row>
-    <row r="3" spans="1:10" ht="6" customHeight="1"/>
-    <row r="4" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A4" s="104"/>
       <c r="B4" s="104"/>
       <c r="C4" s="104"/>
@@ -3485,7 +3411,7 @@
       <c r="I4" s="104"/>
       <c r="J4" s="104"/>
     </row>
-    <row r="5" spans="1:10" s="20" customFormat="1">
+    <row r="5" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
         <v>37</v>
       </c>
@@ -3499,7 +3425,7 @@
       <c r="I5" s="97"/>
       <c r="J5" s="97"/>
     </row>
-    <row r="6" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="6" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="105" t="s">
         <v>38</v>
       </c>
@@ -3513,7 +3439,7 @@
       <c r="I6" s="105"/>
       <c r="J6" s="105"/>
     </row>
-    <row r="7" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="7" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="106" t="s">
         <v>39</v>
       </c>
@@ -3527,7 +3453,7 @@
       <c r="I7" s="106"/>
       <c r="J7" s="106"/>
     </row>
-    <row r="8" spans="1:10" s="20" customFormat="1">
+    <row r="8" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="97" t="s">
         <v>40</v>
       </c>
@@ -3541,7 +3467,7 @@
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
     </row>
-    <row r="9" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="9" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="105" t="s">
         <v>41</v>
       </c>
@@ -3555,7 +3481,7 @@
       <c r="I9" s="105"/>
       <c r="J9" s="105"/>
     </row>
-    <row r="10" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="10" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="106" t="s">
         <v>42</v>
       </c>
@@ -3569,7 +3495,7 @@
       <c r="I10" s="106"/>
       <c r="J10" s="106"/>
     </row>
-    <row r="11" spans="1:10" s="20" customFormat="1">
+    <row r="11" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="97" t="s">
         <v>43</v>
       </c>
@@ -3583,7 +3509,7 @@
       <c r="I11" s="97"/>
       <c r="J11" s="97"/>
     </row>
-    <row r="12" spans="1:10" s="20" customFormat="1">
+    <row r="12" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="107" t="s">
         <v>44</v>
       </c>
@@ -3597,7 +3523,7 @@
       <c r="I12" s="107"/>
       <c r="J12" s="107"/>
     </row>
-    <row r="13" spans="1:10" s="20" customFormat="1">
+    <row r="13" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="107" t="s">
         <v>45</v>
       </c>
@@ -3611,7 +3537,7 @@
       <c r="I13" s="107"/>
       <c r="J13" s="107"/>
     </row>
-    <row r="14" spans="1:10" s="20" customFormat="1">
+    <row r="14" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>46</v>
       </c>
@@ -3625,7 +3551,7 @@
       <c r="I14" s="107"/>
       <c r="J14" s="107"/>
     </row>
-    <row r="15" spans="1:10" s="20" customFormat="1">
+    <row r="15" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>47</v>
       </c>
@@ -3639,7 +3565,7 @@
       <c r="I15" s="107"/>
       <c r="J15" s="107"/>
     </row>
-    <row r="16" spans="1:10" s="20" customFormat="1">
+    <row r="16" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="107" t="s">
         <v>48</v>
       </c>
@@ -3653,7 +3579,7 @@
       <c r="I16" s="107"/>
       <c r="J16" s="107"/>
     </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="17" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="105" t="s">
         <v>49</v>
       </c>
@@ -3667,7 +3593,7 @@
       <c r="I17" s="105"/>
       <c r="J17" s="105"/>
     </row>
-    <row r="18" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1">
+    <row r="18" spans="1:10" s="20" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="106" t="s">
         <v>50</v>
       </c>
@@ -3681,7 +3607,7 @@
       <c r="I18" s="106"/>
       <c r="J18" s="106"/>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1">
+    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="107" t="s">
         <v>51</v>
       </c>
@@ -3695,7 +3621,7 @@
       <c r="I19" s="107"/>
       <c r="J19" s="107"/>
     </row>
-    <row r="20" spans="1:10" s="20" customFormat="1">
+    <row r="20" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="107" t="s">
         <v>52</v>
       </c>
@@ -3709,7 +3635,7 @@
       <c r="I20" s="107"/>
       <c r="J20" s="107"/>
     </row>
-    <row r="21" spans="1:10" s="20" customFormat="1">
+    <row r="21" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="107" t="s">
         <v>53</v>
       </c>
@@ -3723,7 +3649,7 @@
       <c r="I21" s="107"/>
       <c r="J21" s="107"/>
     </row>
-    <row r="22" spans="1:10" s="20" customFormat="1">
+    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="107" t="s">
         <v>54</v>
       </c>
@@ -3737,7 +3663,7 @@
       <c r="I22" s="107"/>
       <c r="J22" s="107"/>
     </row>
-    <row r="23" spans="1:10" s="20" customFormat="1">
+    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>55</v>
       </c>
@@ -3751,7 +3677,7 @@
       <c r="I23" s="107"/>
       <c r="J23" s="107"/>
     </row>
-    <row r="24" spans="1:10" s="20" customFormat="1">
+    <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="107" t="s">
         <v>56</v>
       </c>
@@ -3765,7 +3691,7 @@
       <c r="I24" s="107"/>
       <c r="J24" s="107"/>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1">
+    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="107" t="s">
         <v>57</v>
       </c>
@@ -3779,7 +3705,7 @@
       <c r="I25" s="107"/>
       <c r="J25" s="107"/>
     </row>
-    <row r="26" spans="1:10" s="20" customFormat="1">
+    <row r="26" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
         <v>58</v>
       </c>
@@ -3793,7 +3719,7 @@
       <c r="I26" s="107"/>
       <c r="J26" s="107"/>
     </row>
-    <row r="27" spans="1:10" s="20" customFormat="1">
+    <row r="27" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>59</v>
       </c>
@@ -3807,7 +3733,7 @@
       <c r="I27" s="107"/>
       <c r="J27" s="107"/>
     </row>
-    <row r="28" spans="1:10" s="20" customFormat="1">
+    <row r="28" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="107" t="s">
         <v>60</v>
       </c>
@@ -3821,7 +3747,7 @@
       <c r="I28" s="107"/>
       <c r="J28" s="107"/>
     </row>
-    <row r="29" spans="1:10" s="20" customFormat="1">
+    <row r="29" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="107" t="s">
         <v>61</v>
       </c>
@@ -3835,7 +3761,7 @@
       <c r="I29" s="107"/>
       <c r="J29" s="107"/>
     </row>
-    <row r="30" spans="1:10" s="20" customFormat="1">
+    <row r="30" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>62</v>
       </c>
@@ -3849,7 +3775,7 @@
       <c r="I30" s="107"/>
       <c r="J30" s="107"/>
     </row>
-    <row r="31" spans="1:10" s="20" customFormat="1">
+    <row r="31" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="107" t="s">
         <v>63</v>
       </c>
@@ -3863,7 +3789,7 @@
       <c r="I31" s="107"/>
       <c r="J31" s="107"/>
     </row>
-    <row r="32" spans="1:10" s="20" customFormat="1">
+    <row r="32" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="107" t="s">
         <v>64</v>
       </c>
@@ -3877,37 +3803,37 @@
       <c r="I32" s="107"/>
       <c r="J32" s="107"/>
     </row>
-    <row r="33" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="33" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
     </row>
-    <row r="34" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="34" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
     </row>
-    <row r="35" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="35" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
     </row>
-    <row r="36" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="36" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
     </row>
-    <row r="37" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="37" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
     </row>
-    <row r="38" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="38" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
     </row>
-    <row r="39" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="39" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
     </row>
-    <row r="40" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="40" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
     </row>
-    <row r="41" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="41" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
     </row>
-    <row r="42" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="42" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
     </row>
-    <row r="43" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="43" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A43" s="108"/>
       <c r="B43" s="108"/>
       <c r="C43" s="108"/>
@@ -3919,7 +3845,7 @@
       <c r="I43" s="108"/>
       <c r="J43" s="108"/>
     </row>
-    <row r="44" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="44" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A44" s="108"/>
       <c r="B44" s="108"/>
       <c r="C44" s="108"/>
@@ -3931,7 +3857,7 @@
       <c r="I44" s="108"/>
       <c r="J44" s="108"/>
     </row>
-    <row r="45" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="45" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A45" s="108"/>
       <c r="B45" s="108"/>
       <c r="C45" s="108"/>
@@ -3943,7 +3869,7 @@
       <c r="I45" s="108"/>
       <c r="J45" s="108"/>
     </row>
-    <row r="46" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="46" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A46" s="108"/>
       <c r="B46" s="108"/>
       <c r="C46" s="108"/>
@@ -3955,7 +3881,7 @@
       <c r="I46" s="108"/>
       <c r="J46" s="108"/>
     </row>
-    <row r="47" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="47" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A47" s="108"/>
       <c r="B47" s="108"/>
       <c r="C47" s="108"/>
@@ -3967,7 +3893,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
     </row>
-    <row r="48" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="48" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A48" s="108"/>
       <c r="B48" s="108"/>
       <c r="C48" s="108"/>
@@ -3979,7 +3905,7 @@
       <c r="I48" s="108"/>
       <c r="J48" s="108"/>
     </row>
-    <row r="49" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="49" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A49" s="108"/>
       <c r="B49" s="108"/>
       <c r="C49" s="108"/>
@@ -3991,7 +3917,7 @@
       <c r="I49" s="108"/>
       <c r="J49" s="108"/>
     </row>
-    <row r="50" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="50" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A50" s="108"/>
       <c r="B50" s="108"/>
       <c r="C50" s="108"/>
@@ -4003,7 +3929,7 @@
       <c r="I50" s="108"/>
       <c r="J50" s="108"/>
     </row>
-    <row r="51" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="51" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A51" s="108"/>
       <c r="B51" s="108"/>
       <c r="C51" s="108"/>
@@ -4015,7 +3941,7 @@
       <c r="I51" s="108"/>
       <c r="J51" s="108"/>
     </row>
-    <row r="52" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="52" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A52" s="108"/>
       <c r="B52" s="108"/>
       <c r="C52" s="108"/>
@@ -4027,7 +3953,7 @@
       <c r="I52" s="108"/>
       <c r="J52" s="108"/>
     </row>
-    <row r="53" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="53" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A53" s="108"/>
       <c r="B53" s="108"/>
       <c r="C53" s="108"/>
@@ -4039,7 +3965,7 @@
       <c r="I53" s="108"/>
       <c r="J53" s="108"/>
     </row>
-    <row r="54" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="54" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A54" s="108"/>
       <c r="B54" s="108"/>
       <c r="C54" s="108"/>
@@ -4051,7 +3977,7 @@
       <c r="I54" s="108"/>
       <c r="J54" s="108"/>
     </row>
-    <row r="55" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="55" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A55" s="108"/>
       <c r="B55" s="108"/>
       <c r="C55" s="108"/>
@@ -4063,7 +3989,7 @@
       <c r="I55" s="108"/>
       <c r="J55" s="108"/>
     </row>
-    <row r="56" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="56" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A56" s="108"/>
       <c r="B56" s="108"/>
       <c r="C56" s="108"/>
@@ -4075,7 +4001,7 @@
       <c r="I56" s="108"/>
       <c r="J56" s="108"/>
     </row>
-    <row r="57" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="57" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A57" s="108"/>
       <c r="B57" s="108"/>
       <c r="C57" s="108"/>
@@ -4087,7 +4013,7 @@
       <c r="I57" s="108"/>
       <c r="J57" s="108"/>
     </row>
-    <row r="58" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="58" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A58" s="108"/>
       <c r="B58" s="108"/>
       <c r="C58" s="108"/>
@@ -4099,7 +4025,7 @@
       <c r="I58" s="108"/>
       <c r="J58" s="108"/>
     </row>
-    <row r="59" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="59" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A59" s="108"/>
       <c r="B59" s="108"/>
       <c r="C59" s="108"/>
@@ -4111,7 +4037,7 @@
       <c r="I59" s="108"/>
       <c r="J59" s="108"/>
     </row>
-    <row r="60" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="60" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A60" s="108"/>
       <c r="B60" s="108"/>
       <c r="C60" s="108"/>
@@ -4123,7 +4049,7 @@
       <c r="I60" s="108"/>
       <c r="J60" s="108"/>
     </row>
-    <row r="61" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="61" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A61" s="108"/>
       <c r="B61" s="108"/>
       <c r="C61" s="108"/>
@@ -4135,7 +4061,7 @@
       <c r="I61" s="108"/>
       <c r="J61" s="108"/>
     </row>
-    <row r="62" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="62" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A62" s="108"/>
       <c r="B62" s="108"/>
       <c r="C62" s="108"/>
@@ -4147,7 +4073,7 @@
       <c r="I62" s="108"/>
       <c r="J62" s="108"/>
     </row>
-    <row r="63" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="63" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A63" s="108"/>
       <c r="B63" s="108"/>
       <c r="C63" s="108"/>
@@ -4159,7 +4085,7 @@
       <c r="I63" s="108"/>
       <c r="J63" s="108"/>
     </row>
-    <row r="64" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="64" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A64" s="108"/>
       <c r="B64" s="108"/>
       <c r="C64" s="108"/>
@@ -4171,7 +4097,7 @@
       <c r="I64" s="108"/>
       <c r="J64" s="108"/>
     </row>
-    <row r="65" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="65" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A65" s="108"/>
       <c r="B65" s="108"/>
       <c r="C65" s="108"/>
@@ -4183,7 +4109,7 @@
       <c r="I65" s="108"/>
       <c r="J65" s="108"/>
     </row>
-    <row r="66" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="66" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A66" s="108"/>
       <c r="B66" s="108"/>
       <c r="C66" s="108"/>
@@ -4195,7 +4121,7 @@
       <c r="I66" s="108"/>
       <c r="J66" s="108"/>
     </row>
-    <row r="67" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="67" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A67" s="108"/>
       <c r="B67" s="108"/>
       <c r="C67" s="108"/>
@@ -4207,7 +4133,7 @@
       <c r="I67" s="108"/>
       <c r="J67" s="108"/>
     </row>
-    <row r="68" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="68" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A68" s="108"/>
       <c r="B68" s="108"/>
       <c r="C68" s="108"/>
@@ -4219,7 +4145,7 @@
       <c r="I68" s="108"/>
       <c r="J68" s="108"/>
     </row>
-    <row r="69" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="69" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A69" s="108"/>
       <c r="B69" s="108"/>
       <c r="C69" s="108"/>
@@ -4231,7 +4157,7 @@
       <c r="I69" s="108"/>
       <c r="J69" s="108"/>
     </row>
-    <row r="70" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="70" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A70" s="108"/>
       <c r="B70" s="108"/>
       <c r="C70" s="108"/>
@@ -4243,7 +4169,7 @@
       <c r="I70" s="108"/>
       <c r="J70" s="108"/>
     </row>
-    <row r="71" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="71" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A71" s="108"/>
       <c r="B71" s="108"/>
       <c r="C71" s="108"/>
@@ -4255,7 +4181,7 @@
       <c r="I71" s="108"/>
       <c r="J71" s="108"/>
     </row>
-    <row r="72" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="72" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A72" s="108"/>
       <c r="B72" s="108"/>
       <c r="C72" s="108"/>
@@ -4267,7 +4193,7 @@
       <c r="I72" s="108"/>
       <c r="J72" s="108"/>
     </row>
-    <row r="73" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="73" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A73" s="108"/>
       <c r="B73" s="108"/>
       <c r="C73" s="108"/>
@@ -4279,7 +4205,7 @@
       <c r="I73" s="108"/>
       <c r="J73" s="108"/>
     </row>
-    <row r="74" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="74" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A74" s="108"/>
       <c r="B74" s="108"/>
       <c r="C74" s="108"/>
@@ -4291,7 +4217,7 @@
       <c r="I74" s="108"/>
       <c r="J74" s="108"/>
     </row>
-    <row r="75" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="75" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A75" s="108"/>
       <c r="B75" s="108"/>
       <c r="C75" s="108"/>
@@ -4303,7 +4229,7 @@
       <c r="I75" s="108"/>
       <c r="J75" s="108"/>
     </row>
-    <row r="76" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="76" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A76" s="108"/>
       <c r="B76" s="108"/>
       <c r="C76" s="108"/>
@@ -4315,7 +4241,7 @@
       <c r="I76" s="108"/>
       <c r="J76" s="108"/>
     </row>
-    <row r="77" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="77" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A77" s="108"/>
       <c r="B77" s="108"/>
       <c r="C77" s="108"/>
@@ -4327,7 +4253,7 @@
       <c r="I77" s="108"/>
       <c r="J77" s="108"/>
     </row>
-    <row r="78" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="78" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A78" s="108"/>
       <c r="B78" s="108"/>
       <c r="C78" s="108"/>
@@ -4339,7 +4265,7 @@
       <c r="I78" s="108"/>
       <c r="J78" s="108"/>
     </row>
-    <row r="79" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="79" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A79" s="108"/>
       <c r="B79" s="108"/>
       <c r="C79" s="108"/>
@@ -4351,7 +4277,7 @@
       <c r="I79" s="108"/>
       <c r="J79" s="108"/>
     </row>
-    <row r="80" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="80" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A80" s="108"/>
       <c r="B80" s="108"/>
       <c r="C80" s="108"/>
@@ -4363,7 +4289,7 @@
       <c r="I80" s="108"/>
       <c r="J80" s="108"/>
     </row>
-    <row r="81" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="81" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A81" s="108"/>
       <c r="B81" s="108"/>
       <c r="C81" s="108"/>
@@ -4375,7 +4301,7 @@
       <c r="I81" s="108"/>
       <c r="J81" s="108"/>
     </row>
-    <row r="82" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="82" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A82" s="108"/>
       <c r="B82" s="108"/>
       <c r="C82" s="108"/>
@@ -4387,7 +4313,7 @@
       <c r="I82" s="108"/>
       <c r="J82" s="108"/>
     </row>
-    <row r="83" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="83" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A83" s="108"/>
       <c r="B83" s="108"/>
       <c r="C83" s="108"/>
@@ -4399,7 +4325,7 @@
       <c r="I83" s="108"/>
       <c r="J83" s="108"/>
     </row>
-    <row r="84" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="84" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A84" s="108"/>
       <c r="B84" s="108"/>
       <c r="C84" s="108"/>
@@ -4411,7 +4337,7 @@
       <c r="I84" s="108"/>
       <c r="J84" s="108"/>
     </row>
-    <row r="85" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="85" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A85" s="108"/>
       <c r="B85" s="108"/>
       <c r="C85" s="108"/>
@@ -4423,7 +4349,7 @@
       <c r="I85" s="108"/>
       <c r="J85" s="108"/>
     </row>
-    <row r="86" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="86" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A86" s="108"/>
       <c r="B86" s="108"/>
       <c r="C86" s="108"/>
@@ -4435,7 +4361,7 @@
       <c r="I86" s="108"/>
       <c r="J86" s="108"/>
     </row>
-    <row r="87" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="87" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A87" s="108"/>
       <c r="B87" s="108"/>
       <c r="C87" s="108"/>
@@ -4447,7 +4373,7 @@
       <c r="I87" s="108"/>
       <c r="J87" s="108"/>
     </row>
-    <row r="88" spans="1:10" s="20" customFormat="1" ht="13.2">
+    <row r="88" spans="1:10" s="20" customFormat="1" ht="13.2" x14ac:dyDescent="0.2">
       <c r="A88" s="108"/>
       <c r="B88" s="108"/>
       <c r="C88" s="108"/>
@@ -4553,34 +4479,34 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>
